--- a/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="460">
   <si>
     <t>Path</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Event</t>
+  </si>
+  <si>
+    <t>ALR Table 1-1</t>
   </si>
   <si>
     <t>Coverage.id</t>
@@ -1875,12 +1878,12 @@
         <v>43</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1891,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>43</v>
@@ -1900,19 +1903,19 @@
         <v>43</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1962,13 +1965,13 @@
         <v>43</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>43</v>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2011,7 +2014,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>43</v>
@@ -2020,16 +2023,16 @@
         <v>43</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2080,19 +2083,19 @@
         <v>43</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>43</v>
@@ -2118,7 +2121,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2129,28 +2132,28 @@
         <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2200,19 +2203,19 @@
         <v>43</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>43</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2249,7 +2252,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>43</v>
@@ -2261,16 +2264,16 @@
         <v>43</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2296,13 +2299,13 @@
         <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>43</v>
@@ -2320,19 +2323,19 @@
         <v>43</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>43</v>
@@ -2358,18 +2361,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>43</v>
@@ -2381,16 +2384,16 @@
         <v>43</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2440,25 +2443,25 @@
         <v>43</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>43</v>
@@ -2478,11 +2481,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2501,16 +2504,16 @@
         <v>43</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2560,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>44</v>
@@ -2578,7 +2581,7 @@
         <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>43</v>
@@ -2598,7 +2601,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2621,13 +2624,13 @@
         <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2666,17 +2669,17 @@
         <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>44</v>
@@ -2688,7 +2691,7 @@
         <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>43</v>
@@ -2714,10 +2717,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>43</v>
@@ -2727,10 +2730,10 @@
         <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>43</v>
@@ -2739,13 +2742,13 @@
         <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2796,7 +2799,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -2805,10 +2808,10 @@
         <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>43</v>
@@ -2834,10 +2837,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>43</v>
@@ -2847,10 +2850,10 @@
         <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -2859,13 +2862,13 @@
         <v>43</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2916,7 +2919,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -2928,7 +2931,7 @@
         <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>43</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2965,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>43</v>
@@ -2977,13 +2980,13 @@
         <v>43</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3034,13 +3037,13 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>43</v>
@@ -3052,7 +3055,7 @@
         <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>43</v>
@@ -3072,11 +3075,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3095,16 +3098,16 @@
         <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3142,19 +3145,19 @@
         <v>43</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>44</v>
@@ -3166,13 +3169,13 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3192,10 +3195,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>43</v>
@@ -3217,13 +3220,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3274,7 +3277,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3286,7 +3289,7 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>43</v>
@@ -3307,12 +3310,12 @@
         <v>43</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3323,7 +3326,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>43</v>
@@ -3335,13 +3338,13 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3392,13 +3395,13 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>43</v>
@@ -3410,7 +3413,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3453,13 +3456,13 @@
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3498,19 +3501,19 @@
         <v>43</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3522,7 +3525,7 @@
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>43</v>
@@ -3548,7 +3551,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3556,10 +3559,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>43</v>
@@ -3571,16 +3574,16 @@
         <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3588,7 +3591,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>43</v>
@@ -3630,13 +3633,13 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>43</v>
@@ -3648,7 +3651,7 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
@@ -3668,7 +3671,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3679,7 +3682,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>43</v>
@@ -3691,13 +3694,13 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3748,25 +3751,25 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3794,10 +3797,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
@@ -3809,16 +3812,16 @@
         <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3826,7 +3829,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>43</v>
@@ -3868,13 +3871,13 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>43</v>
@@ -3886,7 +3889,7 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>43</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3929,13 +3932,13 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3986,25 +3989,25 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -4024,11 +4027,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4041,25 +4044,25 @@
         <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -4108,7 +4111,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4120,13 +4123,13 @@
         <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4160,28 +4163,28 @@
         <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -4218,17 +4221,17 @@
         <v>43</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4240,25 +4243,25 @@
         <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>43</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>43</v>
@@ -4279,31 +4282,31 @@
         <v>44</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -4352,7 +4355,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4364,25 +4367,25 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>43</v>
@@ -4390,7 +4393,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4401,7 +4404,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -4413,13 +4416,13 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4470,13 +4473,13 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
@@ -4488,7 +4491,7 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>43</v>
@@ -4508,11 +4511,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4531,16 +4534,16 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4578,19 +4581,19 @@
         <v>43</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4602,13 +4605,13 @@
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4628,7 +4631,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4639,31 +4642,31 @@
         <v>44</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4688,13 +4691,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4712,25 +4715,25 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
@@ -4739,7 +4742,7 @@
         <v>43</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>43</v>
@@ -4750,7 +4753,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4758,34 +4761,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4810,13 +4813,13 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4834,25 +4837,25 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>43</v>
@@ -4861,7 +4864,7 @@
         <v>43</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>43</v>
@@ -4872,7 +4875,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4883,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>43</v>
@@ -4895,13 +4898,13 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4952,13 +4955,13 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
@@ -4970,7 +4973,7 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>43</v>
@@ -4990,11 +4993,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5013,16 +5016,16 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5060,19 +5063,19 @@
         <v>43</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5084,13 +5087,13 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>43</v>
@@ -5110,7 +5113,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5118,34 +5121,34 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -5194,7 +5197,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5206,13 +5209,13 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
@@ -5221,7 +5224,7 @@
         <v>43</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>43</v>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5243,7 +5246,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -5255,13 +5258,13 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5312,13 +5315,13 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
@@ -5330,7 +5333,7 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
@@ -5350,11 +5353,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5373,16 +5376,16 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5420,19 +5423,19 @@
         <v>43</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5444,13 +5447,13 @@
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5470,7 +5473,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5478,41 +5481,41 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>43</v>
@@ -5554,25 +5557,25 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5581,7 +5584,7 @@
         <v>43</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>43</v>
@@ -5592,7 +5595,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5603,7 +5606,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>43</v>
@@ -5612,19 +5615,19 @@
         <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5674,25 +5677,25 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
@@ -5701,7 +5704,7 @@
         <v>43</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>43</v>
@@ -5712,7 +5715,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5720,39 +5723,39 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>43</v>
@@ -5794,25 +5797,25 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5821,7 +5824,7 @@
         <v>43</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>43</v>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5843,7 +5846,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
@@ -5852,20 +5855,20 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5914,25 +5917,25 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
@@ -5941,7 +5944,7 @@
         <v>43</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>43</v>
@@ -5952,7 +5955,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5963,7 +5966,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>43</v>
@@ -5972,22 +5975,22 @@
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
@@ -6036,25 +6039,25 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
@@ -6063,7 +6066,7 @@
         <v>43</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>43</v>
@@ -6074,7 +6077,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6085,7 +6088,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -6094,22 +6097,22 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -6158,25 +6161,25 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
@@ -6185,7 +6188,7 @@
         <v>43</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>43</v>
@@ -6196,7 +6199,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6204,34 +6207,34 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -6244,7 +6247,7 @@
         <v>43</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>43</v>
@@ -6280,25 +6283,25 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -6307,7 +6310,7 @@
         <v>43</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>43</v>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6326,31 +6329,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6364,7 +6367,7 @@
         <v>43</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>43</v>
@@ -6400,25 +6403,25 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6427,7 +6430,7 @@
         <v>43</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>43</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6449,7 +6452,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>43</v>
@@ -6458,16 +6461,16 @@
         <v>43</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6518,25 +6521,25 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6545,7 +6548,7 @@
         <v>43</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>43</v>
@@ -6556,7 +6559,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6567,7 +6570,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>43</v>
@@ -6576,19 +6579,19 @@
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6638,25 +6641,25 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6665,7 +6668,7 @@
         <v>43</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>43</v>
@@ -6676,7 +6679,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6684,41 +6687,41 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>43</v>
@@ -6736,13 +6739,13 @@
         <v>43</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6760,28 +6763,28 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6798,7 +6801,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6809,7 +6812,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
@@ -6818,20 +6821,20 @@
         <v>43</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6856,13 +6859,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6880,19 +6883,19 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>43</v>
@@ -6901,13 +6904,13 @@
         <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>43</v>
@@ -6918,7 +6921,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6932,28 +6935,28 @@
         <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -7002,19 +7005,19 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>43</v>
@@ -7023,16 +7026,16 @@
         <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>43</v>
@@ -7040,7 +7043,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7054,28 +7057,28 @@
         <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -7124,37 +7127,37 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>43</v>
@@ -7162,7 +7165,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7170,32 +7173,32 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -7244,19 +7247,19 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>43</v>
@@ -7265,16 +7268,16 @@
         <v>43</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>43</v>
@@ -7282,7 +7285,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7290,32 +7293,32 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -7364,37 +7367,37 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>43</v>
@@ -7402,7 +7405,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7416,28 +7419,28 @@
         <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -7486,19 +7489,19 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>43</v>
@@ -7510,10 +7513,10 @@
         <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>43</v>
@@ -7524,7 +7527,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7538,7 +7541,7 @@
         <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
@@ -7547,19 +7550,19 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7584,13 +7587,13 @@
         <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
@@ -7608,19 +7611,19 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>43</v>
@@ -7632,7 +7635,7 @@
         <v>43</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>43</v>
@@ -7646,7 +7649,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7654,32 +7657,32 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7728,34 +7731,34 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>43</v>
@@ -7766,7 +7769,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7774,34 +7777,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7850,10 +7853,10 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>45</v>
@@ -7862,7 +7865,7 @@
         <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>43</v>
@@ -7871,16 +7874,16 @@
         <v>43</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>43</v>
@@ -7888,7 +7891,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7902,7 +7905,7 @@
         <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
@@ -7911,19 +7914,19 @@
         <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7960,17 +7963,17 @@
         <v>43</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -7982,7 +7985,7 @@
         <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>43</v>
@@ -8008,7 +8011,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8019,7 +8022,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>43</v>
@@ -8031,13 +8034,13 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8088,13 +8091,13 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
@@ -8106,7 +8109,7 @@
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
@@ -8126,11 +8129,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8149,16 +8152,16 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8208,7 +8211,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8220,13 +8223,13 @@
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
@@ -8246,11 +8249,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8263,25 +8266,25 @@
         <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8330,7 +8333,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8342,13 +8345,13 @@
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8376,10 +8379,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>43</v>
@@ -8388,20 +8391,20 @@
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8426,13 +8429,13 @@
         <v>43</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>43</v>
@@ -8450,19 +8453,19 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>43</v>
@@ -8488,7 +8491,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8496,10 +8499,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -8508,22 +8511,22 @@
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8572,19 +8575,19 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
@@ -8596,13 +8599,13 @@
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>43</v>
@@ -8610,7 +8613,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8621,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>43</v>
@@ -8630,20 +8633,20 @@
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8692,37 +8695,37 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>43</v>
@@ -8730,10 +8733,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>43</v>
@@ -8743,10 +8746,10 @@
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>43</v>
@@ -8755,19 +8758,19 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8816,7 +8819,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -8828,7 +8831,7 @@
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>43</v>
@@ -8854,7 +8857,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8865,7 +8868,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8877,13 +8880,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8934,13 +8937,13 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8952,7 +8955,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8972,11 +8975,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8995,16 +8998,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9054,7 +9057,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9066,13 +9069,13 @@
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
@@ -9092,11 +9095,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9109,25 +9112,25 @@
         <v>43</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -9176,7 +9179,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9188,13 +9191,13 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
@@ -9214,7 +9217,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9222,32 +9225,32 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -9272,13 +9275,13 @@
         <v>43</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>43</v>
@@ -9296,19 +9299,19 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -9334,7 +9337,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9345,7 +9348,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -9357,13 +9360,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9414,13 +9417,13 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>43</v>
@@ -9432,7 +9435,7 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
@@ -9452,11 +9455,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9475,16 +9478,16 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9522,19 +9525,19 @@
         <v>43</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9546,13 +9549,13 @@
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -9572,7 +9575,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9580,34 +9583,34 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -9656,7 +9659,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9668,13 +9671,13 @@
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -9683,7 +9686,7 @@
         <v>43</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>43</v>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9705,7 +9708,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
@@ -9717,13 +9720,13 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9774,13 +9777,13 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
@@ -9792,7 +9795,7 @@
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9812,11 +9815,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9835,16 +9838,16 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9882,19 +9885,19 @@
         <v>43</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -9906,13 +9909,13 @@
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9932,7 +9935,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9940,41 +9943,41 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>43</v>
@@ -10016,25 +10019,25 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
@@ -10043,7 +10046,7 @@
         <v>43</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>43</v>
@@ -10054,7 +10057,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10065,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -10074,19 +10077,19 @@
         <v>43</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10136,25 +10139,25 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
@@ -10163,7 +10166,7 @@
         <v>43</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>43</v>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10182,39 +10185,39 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>43</v>
@@ -10256,25 +10259,25 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
@@ -10283,7 +10286,7 @@
         <v>43</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>43</v>
@@ -10294,7 +10297,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10305,7 +10308,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>43</v>
@@ -10314,20 +10317,20 @@
         <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -10376,25 +10379,25 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -10403,7 +10406,7 @@
         <v>43</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>43</v>
@@ -10414,7 +10417,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10425,7 +10428,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -10434,22 +10437,22 @@
         <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -10498,25 +10501,25 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
@@ -10525,7 +10528,7 @@
         <v>43</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>43</v>
@@ -10536,7 +10539,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10547,7 +10550,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>43</v>
@@ -10556,22 +10559,22 @@
         <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -10620,25 +10623,25 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
@@ -10647,7 +10650,7 @@
         <v>43</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>43</v>
@@ -10658,7 +10661,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10666,34 +10669,34 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10742,19 +10745,19 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>43</v>
@@ -10766,13 +10769,13 @@
         <v>43</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>43</v>
@@ -10780,7 +10783,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10791,7 +10794,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>43</v>
@@ -10800,20 +10803,20 @@
         <v>43</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -10862,37 +10865,37 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>43</v>
@@ -10900,7 +10903,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10920,20 +10923,20 @@
         <v>43</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -10982,19 +10985,19 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>43</v>
@@ -11009,7 +11012,7 @@
         <v>43</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>43</v>
@@ -11020,7 +11023,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11040,20 +11043,20 @@
         <v>43</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -11102,19 +11105,19 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>43</v>
@@ -11126,7 +11129,7 @@
         <v>43</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>43</v>
@@ -11140,11 +11143,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11163,19 +11166,19 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -11224,7 +11227,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>44</v>
@@ -11236,7 +11239,7 @@
         <v>43</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>43</v>
@@ -11262,7 +11265,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11273,7 +11276,7 @@
         <v>44</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>43</v>
@@ -11285,13 +11288,13 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11342,13 +11345,13 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>43</v>
@@ -11360,7 +11363,7 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
@@ -11380,11 +11383,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11403,16 +11406,16 @@
         <v>43</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11462,7 +11465,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
@@ -11474,13 +11477,13 @@
         <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>43</v>
@@ -11500,11 +11503,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11517,25 +11520,25 @@
         <v>43</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11584,7 +11587,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
@@ -11596,13 +11599,13 @@
         <v>43</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>43</v>
@@ -11622,7 +11625,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11633,7 +11636,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>43</v>
@@ -11642,22 +11645,22 @@
         <v>43</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -11682,13 +11685,13 @@
         <v>43</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>43</v>
@@ -11706,19 +11709,19 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>43</v>
@@ -11744,7 +11747,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11752,10 +11755,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>43</v>
@@ -11764,22 +11767,22 @@
         <v>43</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>43</v>
@@ -11828,19 +11831,19 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>43</v>
@@ -11852,13 +11855,13 @@
         <v>43</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>43</v>
@@ -11866,7 +11869,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11889,17 +11892,17 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
@@ -11948,7 +11951,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>44</v>
@@ -11960,7 +11963,7 @@
         <v>43</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>43</v>
@@ -11986,7 +11989,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11997,7 +12000,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>43</v>
@@ -12009,13 +12012,13 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12066,13 +12069,13 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>43</v>
@@ -12084,7 +12087,7 @@
         <v>43</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>43</v>
@@ -12104,11 +12107,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12127,16 +12130,16 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12186,7 +12189,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>44</v>
@@ -12198,13 +12201,13 @@
         <v>43</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>43</v>
@@ -12224,11 +12227,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12241,25 +12244,25 @@
         <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -12308,7 +12311,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>44</v>
@@ -12320,13 +12323,13 @@
         <v>43</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -12346,7 +12349,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12354,10 +12357,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>43</v>
@@ -12366,20 +12369,20 @@
         <v>43</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -12404,13 +12407,13 @@
         <v>43</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
@@ -12428,19 +12431,19 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>43</v>
@@ -12466,7 +12469,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12477,7 +12480,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>43</v>
@@ -12486,20 +12489,20 @@
         <v>43</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -12548,19 +12551,19 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>43</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12609,19 +12612,19 @@
         <v>43</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -12670,19 +12673,19 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>43</v>
@@ -12708,7 +12711,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12731,17 +12734,17 @@
         <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -12790,7 +12793,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>44</v>
@@ -12802,25 +12805,25 @@
         <v>43</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>43</v>

--- a/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -362,17 +362,17 @@
 </t>
   </si>
   <si>
-    <t>ext-enrollmentPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-enrollmentPeriod}
+    <t>ext-enrollmentFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-enrollmentFlag}
 </t>
   </si>
   <si>
-    <t>ALR Enrollment Period</t>
-  </si>
-  <si>
-    <t>ALR Enrollment Period Desc</t>
+    <t>ALR Enrollment Flag</t>
+  </si>
+  <si>
+    <t>ALR Enrollment Flag Desc</t>
   </si>
   <si>
     <t>Coverage.extension.id</t>
@@ -455,10 +455,17 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Coverage.extension.url</t>
   </si>
   <si>
-    <t>http://alr.cms.gov/ig/StructureDefinition/ext-enrollmentPeriod</t>
+    <t>http://alr.cms.gov/ig/StructureDefinition/ext-enrollmentFlag</t>
   </si>
   <si>
     <t>Coverage.extension.value[x]</t>
@@ -605,10 +612,6 @@
   </si>
   <si>
     <t>Coverage.identifier.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1580,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP93"/>
+  <dimension ref="A1:AP98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2850,7 +2853,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>54</v>
@@ -3208,7 +3211,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -3789,15 +3792,17 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>53</v>
@@ -3812,24 +3817,22 @@
         <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>43</v>
@@ -3871,25 +3874,25 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>43</v>
@@ -3909,7 +3912,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3920,7 +3923,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>43</v>
@@ -3932,13 +3935,13 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3989,7 +3992,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4001,13 +4004,13 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -4027,24 +4030,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>43</v>
@@ -4053,17 +4056,13 @@
         <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>43</v>
       </c>
@@ -4099,19 +4098,19 @@
         <v>43</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4129,7 +4128,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -4149,7 +4148,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4157,41 +4156,39 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>43</v>
@@ -4221,59 +4218,59 @@
         <v>43</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>43</v>
       </c>
@@ -4285,29 +4282,25 @@
         <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>43</v>
       </c>
@@ -4355,13 +4348,13 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
@@ -4370,22 +4363,22 @@
         <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>43</v>
@@ -4393,7 +4386,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4401,7 +4394,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>53</v>
@@ -4416,22 +4409,24 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>43</v>
@@ -4473,10 +4468,10 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>53</v>
@@ -4491,7 +4486,7 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>43</v>
@@ -4511,18 +4506,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>43</v>
@@ -4534,17 +4529,15 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4581,37 +4574,37 @@
         <v>43</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4631,18 +4624,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -4651,22 +4644,22 @@
         <v>54</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4691,13 +4684,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4715,25 +4708,25 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
@@ -4742,7 +4735,7 @@
         <v>43</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>43</v>
@@ -4751,9 +4744,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4761,10 +4754,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>54</v>
@@ -4776,19 +4769,19 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4813,37 +4806,35 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4852,32 +4843,34 @@
         <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4889,25 +4882,29 @@
         <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4955,37 +4952,37 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>43</v>
@@ -4993,18 +4990,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>43</v>
@@ -5016,17 +5013,15 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -5063,31 +5058,31 @@
         <v>43</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>43</v>
@@ -5111,45 +5106,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
@@ -5185,19 +5178,19 @@
         <v>43</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5209,13 +5202,13 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
@@ -5224,7 +5217,7 @@
         <v>43</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>43</v>
@@ -5235,7 +5228,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5252,22 +5245,26 @@
         <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5291,13 +5288,13 @@
         <v>43</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
@@ -5315,7 +5312,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5327,13 +5324,13 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
@@ -5342,7 +5339,7 @@
         <v>43</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>43</v>
@@ -5351,43 +5348,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
@@ -5411,49 +5410,49 @@
         <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5462,7 +5461,7 @@
         <v>43</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>43</v>
@@ -5471,9 +5470,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5481,41 +5480,37 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>43</v>
@@ -5557,7 +5552,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5569,13 +5564,13 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5584,7 +5579,7 @@
         <v>43</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>43</v>
@@ -5595,18 +5590,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>43</v>
@@ -5615,19 +5610,19 @@
         <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5665,37 +5660,37 @@
         <v>43</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
@@ -5704,7 +5699,7 @@
         <v>43</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>43</v>
@@ -5715,7 +5710,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5738,24 +5733,26 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>43</v>
@@ -5797,13 +5794,13 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
@@ -5815,7 +5812,7 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5824,7 +5821,7 @@
         <v>43</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>43</v>
@@ -5835,7 +5832,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5855,21 +5852,19 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>43</v>
       </c>
@@ -5917,7 +5912,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -5929,13 +5924,13 @@
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
@@ -5944,7 +5939,7 @@
         <v>43</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>43</v>
@@ -5955,18 +5950,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>43</v>
@@ -5975,23 +5970,21 @@
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>43</v>
       </c>
@@ -6027,37 +6020,37 @@
         <v>43</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
@@ -6066,7 +6059,7 @@
         <v>43</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>43</v>
@@ -6075,9 +6068,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6085,13 +6078,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>43</v>
@@ -6100,26 +6093,26 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>43</v>
@@ -6161,7 +6154,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6179,7 +6172,7 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
@@ -6188,7 +6181,7 @@
         <v>43</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>43</v>
@@ -6197,9 +6190,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6207,13 +6200,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>43</v>
@@ -6222,20 +6215,18 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
@@ -6247,7 +6238,7 @@
         <v>43</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>43</v>
@@ -6283,7 +6274,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6301,7 +6292,7 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -6310,7 +6301,7 @@
         <v>43</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>43</v>
@@ -6321,7 +6312,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6344,30 +6335,30 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>43</v>
@@ -6403,7 +6394,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6421,7 +6412,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6430,7 +6421,7 @@
         <v>43</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>43</v>
@@ -6441,7 +6432,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6464,16 +6455,18 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
@@ -6521,7 +6514,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6539,7 +6532,7 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6548,7 +6541,7 @@
         <v>43</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>43</v>
@@ -6559,7 +6552,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6582,18 +6575,20 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>43</v>
       </c>
@@ -6641,7 +6636,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6659,7 +6654,7 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6668,7 +6663,7 @@
         <v>43</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>43</v>
@@ -6677,9 +6672,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6687,41 +6682,41 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>43</v>
@@ -6739,13 +6734,13 @@
         <v>43</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6763,10 +6758,10 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>53</v>
@@ -6778,19 +6773,19 @@
         <v>65</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>43</v>
@@ -6799,9 +6794,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6809,13 +6804,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>43</v>
@@ -6824,17 +6819,19 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6847,7 +6844,7 @@
         <v>43</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>43</v>
@@ -6859,13 +6856,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6883,7 +6880,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -6901,16 +6898,16 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>43</v>
@@ -6921,7 +6918,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6929,10 +6926,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>54</v>
@@ -6944,20 +6941,18 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6969,7 +6964,7 @@
         <v>43</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>43</v>
@@ -7005,7 +7000,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7023,27 +7018,27 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7054,10 +7049,10 @@
         <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>43</v>
@@ -7066,20 +7061,16 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
       </c>
@@ -7127,7 +7118,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7145,27 +7136,27 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7173,13 +7164,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>43</v>
@@ -7188,18 +7179,18 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>43</v>
       </c>
@@ -7247,7 +7238,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7265,19 +7256,19 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>43</v>
@@ -7285,7 +7276,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7302,30 +7293,32 @@
         <v>54</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>43</v>
@@ -7343,13 +7336,13 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7367,7 +7360,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>53</v>
@@ -7382,30 +7375,30 @@
         <v>65</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7416,10 +7409,10 @@
         <v>44</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>43</v>
@@ -7428,19 +7421,17 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -7465,13 +7456,13 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7489,7 +7480,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7510,13 +7501,13 @@
         <v>43</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>43</v>
@@ -7527,7 +7518,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7547,22 +7538,22 @@
         <v>43</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7587,13 +7578,13 @@
         <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>336</v>
+        <v>43</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
@@ -7611,7 +7602,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7632,16 +7623,16 @@
         <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>43</v>
@@ -7649,7 +7640,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7657,10 +7648,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>54</v>
@@ -7672,17 +7663,19 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7731,7 +7724,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7746,22 +7739,22 @@
         <v>65</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>43</v>
@@ -7769,7 +7762,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7792,19 +7785,17 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7853,13 +7844,13 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7874,24 +7865,24 @@
         <v>43</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7899,10 +7890,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>54</v>
@@ -7911,22 +7902,20 @@
         <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7963,23 +7952,25 @@
         <v>43</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7988,30 +7979,30 @@
         <v>65</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8022,28 +8013,32 @@
         <v>44</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
       </c>
@@ -8091,7 +8086,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8103,22 +8098,22 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>43</v>
@@ -8127,23 +8122,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
@@ -8152,18 +8147,20 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
       </c>
@@ -8187,13 +8184,13 @@
         <v>43</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>43</v>
@@ -8211,31 +8208,31 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>43</v>
@@ -8247,44 +8244,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8333,34 +8328,34 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>43</v>
@@ -8369,9 +8364,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8385,7 +8380,7 @@
         <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
@@ -8394,17 +8389,19 @@
         <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8429,13 +8426,13 @@
         <v>43</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>43</v>
@@ -8453,13 +8450,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>53</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8474,16 +8471,16 @@
         <v>43</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>43</v>
@@ -8491,7 +8488,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8499,34 +8496,34 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8563,25 +8560,23 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -8599,13 +8594,13 @@
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>43</v>
@@ -8613,7 +8608,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8633,21 +8628,19 @@
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8695,7 +8688,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8707,49 +8700,47 @@
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>43</v>
@@ -8758,20 +8749,18 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>356</v>
+        <v>98</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>358</v>
+        <v>122</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8819,7 +8808,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>125</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -8831,13 +8820,13 @@
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
@@ -8857,39 +8846,43 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8937,25 +8930,25 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8975,18 +8968,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>43</v>
@@ -8995,21 +8988,21 @@
         <v>43</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -9033,13 +9026,13 @@
         <v>43</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
@@ -9057,25 +9050,25 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
@@ -9095,42 +9088,42 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>147</v>
+        <v>379</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -9179,45 +9172,45 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9225,13 +9218,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -9240,17 +9233,17 @@
         <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -9275,13 +9268,13 @@
         <v>43</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>43</v>
@@ -9299,10 +9292,10 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>53</v>
@@ -9323,23 +9316,25 @@
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>43</v>
       </c>
@@ -9351,7 +9346,7 @@
         <v>53</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>43</v>
@@ -9360,16 +9355,20 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
       </c>
@@ -9417,25 +9416,25 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>117</v>
+        <v>356</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
@@ -9455,18 +9454,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>43</v>
@@ -9478,17 +9477,15 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9525,31 +9522,31 @@
         <v>43</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
@@ -9573,45 +9570,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>43</v>
       </c>
@@ -9659,7 +9654,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9671,13 +9666,13 @@
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -9686,7 +9681,7 @@
         <v>43</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>43</v>
@@ -9697,39 +9692,43 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9777,25 +9776,25 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9813,43 +9812,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9873,49 +9872,49 @@
         <v>43</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9933,9 +9932,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9943,41 +9942,37 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>43</v>
@@ -10019,7 +10014,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10031,13 +10026,13 @@
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
@@ -10046,7 +10041,7 @@
         <v>43</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>43</v>
@@ -10057,18 +10052,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -10077,19 +10072,19 @@
         <v>43</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10127,37 +10122,37 @@
         <v>43</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
@@ -10166,7 +10161,7 @@
         <v>43</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>43</v>
@@ -10177,7 +10172,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10200,24 +10195,26 @@
         <v>54</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>396</v>
+        <v>43</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>43</v>
@@ -10259,13 +10256,13 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>43</v>
@@ -10277,7 +10274,7 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
@@ -10286,7 +10283,7 @@
         <v>43</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>43</v>
@@ -10297,7 +10294,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10317,21 +10314,19 @@
         <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>43</v>
       </c>
@@ -10379,7 +10374,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
@@ -10391,13 +10386,13 @@
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -10406,7 +10401,7 @@
         <v>43</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>43</v>
@@ -10417,18 +10412,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -10437,23 +10432,21 @@
         <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
       </c>
@@ -10489,37 +10482,37 @@
         <v>43</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
@@ -10528,7 +10521,7 @@
         <v>43</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>43</v>
@@ -10537,9 +10530,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10547,13 +10540,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
@@ -10562,26 +10555,26 @@
         <v>54</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>43</v>
@@ -10623,7 +10616,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10641,7 +10634,7 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
@@ -10650,7 +10643,7 @@
         <v>43</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>43</v>
@@ -10659,9 +10652,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10669,13 +10662,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>43</v>
@@ -10687,17 +10680,15 @@
         <v>55</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
@@ -10745,10 +10736,10 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>374</v>
+        <v>213</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>53</v>
@@ -10763,27 +10754,27 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10791,13 +10782,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -10806,24 +10797,24 @@
         <v>54</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>384</v>
+        <v>218</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>385</v>
+        <v>219</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>43</v>
@@ -10865,7 +10856,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>382</v>
+        <v>221</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -10883,19 +10874,19 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>380</v>
+        <v>223</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>43</v>
@@ -10903,7 +10894,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10914,7 +10905,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>43</v>
@@ -10926,17 +10917,17 @@
         <v>54</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>403</v>
+        <v>226</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>404</v>
+        <v>227</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -10985,7 +10976,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -11003,7 +10994,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -11012,7 +11003,7 @@
         <v>43</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>43</v>
@@ -11023,7 +11014,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11034,7 +11025,7 @@
         <v>44</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>43</v>
@@ -11046,17 +11037,19 @@
         <v>54</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>406</v>
+        <v>233</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -11105,7 +11098,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>405</v>
+        <v>237</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
@@ -11123,16 +11116,16 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>43</v>
@@ -11143,18 +11136,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>43</v>
@@ -11163,22 +11156,22 @@
         <v>43</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>412</v>
+        <v>241</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>413</v>
+        <v>242</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>414</v>
+        <v>243</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>415</v>
+        <v>244</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -11227,13 +11220,13 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>43</v>
@@ -11245,7 +11238,7 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>43</v>
@@ -11254,7 +11247,7 @@
         <v>43</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>43</v>
@@ -11263,9 +11256,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11273,31 +11266,35 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>115</v>
+        <v>376</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
       </c>
@@ -11345,10 +11342,10 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>53</v>
@@ -11357,25 +11354,25 @@
         <v>43</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>43</v>
@@ -11383,18 +11380,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>43</v>
@@ -11403,21 +11400,21 @@
         <v>43</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>121</v>
+        <v>384</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
       </c>
@@ -11465,37 +11462,37 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>125</v>
+        <v>383</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>43</v>
@@ -11503,42 +11500,40 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>147</v>
+        <v>405</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11587,25 +11582,25 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>43</v>
@@ -11614,7 +11609,7 @@
         <v>43</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>43</v>
@@ -11625,7 +11620,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11636,7 +11631,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>43</v>
@@ -11648,19 +11643,17 @@
         <v>54</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -11685,13 +11678,13 @@
         <v>43</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>424</v>
+        <v>43</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>425</v>
+        <v>43</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>43</v>
@@ -11709,7 +11702,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>44</v>
@@ -11733,7 +11726,7 @@
         <v>43</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>43</v>
+        <v>410</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>43</v>
@@ -11747,18 +11740,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>43</v>
+        <v>412</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>43</v>
@@ -11767,22 +11760,22 @@
         <v>43</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>43</v>
@@ -11831,13 +11824,13 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>43</v>
@@ -11855,13 +11848,13 @@
         <v>43</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>43</v>
@@ -11869,7 +11862,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11880,7 +11873,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>43</v>
@@ -11892,18 +11885,16 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>115</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
+        <v>116</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>43</v>
       </c>
@@ -11951,25 +11942,25 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>432</v>
+        <v>117</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>43</v>
@@ -11989,18 +11980,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>43</v>
@@ -12012,15 +12003,17 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -12069,19 +12062,19 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>43</v>
@@ -12107,11 +12100,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12124,24 +12117,26 @@
         <v>43</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>122</v>
+        <v>367</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
       </c>
@@ -12189,7 +12184,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>44</v>
@@ -12207,7 +12202,7 @@
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>43</v>
@@ -12227,42 +12222,42 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>123</v>
+        <v>423</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>147</v>
+        <v>424</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -12287,13 +12282,13 @@
         <v>43</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
@@ -12311,25 +12306,25 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -12349,7 +12344,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12372,17 +12367,19 @@
         <v>54</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>176</v>
+        <v>428</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -12407,13 +12404,13 @@
         <v>43</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>442</v>
+        <v>43</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>444</v>
+        <v>43</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
@@ -12431,7 +12428,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>53</v>
@@ -12455,13 +12452,13 @@
         <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>43</v>
@@ -12469,7 +12466,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12480,7 +12477,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>43</v>
@@ -12489,20 +12486,20 @@
         <v>43</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -12551,13 +12548,13 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>43</v>
@@ -12589,7 +12586,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12600,7 +12597,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>43</v>
@@ -12612,20 +12609,16 @@
         <v>43</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>450</v>
+        <v>115</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>43</v>
       </c>
@@ -12673,7 +12666,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>44</v>
@@ -12685,13 +12678,13 @@
         <v>43</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>43</v>
@@ -12711,18 +12704,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>43</v>
@@ -12734,18 +12727,18 @@
         <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>455</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>456</v>
+        <v>121</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>43</v>
       </c>
@@ -12793,7 +12786,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>454</v>
+        <v>125</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>44</v>
@@ -12805,7 +12798,7 @@
         <v>43</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>43</v>
@@ -12817,20 +12810,624 @@
         <v>43</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="AN93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AO93" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AP93" t="s" s="2">
+      <c r="O98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AP98" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP93">
+  <autoFilter ref="A1:AP98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12840,7 +13437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -473,6 +473,16 @@
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>ext-partDMonths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-partDMonths}
+</t>
+  </si>
+  <si>
+    <t>ALR Part D Months</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -1583,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP98"/>
+  <dimension ref="A1:AP99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4622,45 +4632,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4726,7 +4734,7 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
@@ -4746,11 +4754,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4760,28 +4768,28 @@
         <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4818,17 +4826,19 @@
         <v>43</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -4840,37 +4850,35 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4879,7 +4887,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>54</v>
@@ -4891,19 +4899,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4940,19 +4948,17 @@
         <v>43</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -4967,32 +4973,34 @@
         <v>65</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>43</v>
       </c>
@@ -5004,25 +5012,29 @@
         <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
       </c>
@@ -5070,37 +5082,37 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>43</v>
@@ -5108,18 +5120,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>
@@ -5131,17 +5143,15 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -5178,31 +5188,31 @@
         <v>43</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
@@ -5228,43 +5238,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5288,49 +5296,49 @@
         <v>43</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
@@ -5339,7 +5347,7 @@
         <v>43</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>43</v>
@@ -5348,9 +5356,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5358,34 +5366,34 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -5410,13 +5418,13 @@
         <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>43</v>
@@ -5434,7 +5442,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5452,7 +5460,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5461,7 +5469,7 @@
         <v>43</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>43</v>
@@ -5470,9 +5478,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5480,31 +5488,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
@@ -5528,13 +5540,13 @@
         <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
@@ -5552,7 +5564,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5564,13 +5576,13 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5579,7 +5591,7 @@
         <v>43</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>43</v>
@@ -5590,18 +5602,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>43</v>
@@ -5613,17 +5625,15 @@
         <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5660,31 +5670,31 @@
         <v>43</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
@@ -5708,45 +5718,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5782,19 +5790,19 @@
         <v>43</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5806,13 +5814,13 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5821,7 +5829,7 @@
         <v>43</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>43</v>
@@ -5830,9 +5838,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5840,31 +5848,35 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
       </c>
@@ -5912,25 +5924,25 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
@@ -5939,7 +5951,7 @@
         <v>43</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>43</v>
@@ -5950,18 +5962,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>43</v>
@@ -5973,17 +5985,15 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>43</v>
@@ -6020,31 +6030,31 @@
         <v>43</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
@@ -6068,51 +6078,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>43</v>
@@ -6142,37 +6150,37 @@
         <v>43</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
@@ -6181,7 +6189,7 @@
         <v>43</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>43</v>
@@ -6190,9 +6198,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6200,13 +6208,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>43</v>
@@ -6215,24 +6223,26 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>43</v>
@@ -6274,7 +6284,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6292,7 +6302,7 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -6301,7 +6311,7 @@
         <v>43</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>43</v>
@@ -6310,9 +6320,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6320,13 +6330,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>43</v>
@@ -6335,24 +6345,24 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>43</v>
@@ -6394,7 +6404,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6412,7 +6422,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6421,7 +6431,7 @@
         <v>43</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>43</v>
@@ -6430,9 +6440,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6440,13 +6450,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>43</v>
@@ -6455,24 +6465,24 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>43</v>
@@ -6514,7 +6524,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6532,7 +6542,7 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6541,7 +6551,7 @@
         <v>43</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>43</v>
@@ -6552,7 +6562,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6575,19 +6585,17 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>43</v>
@@ -6636,7 +6644,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6654,7 +6662,7 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6663,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>43</v>
@@ -6674,7 +6682,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6697,19 +6705,19 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
@@ -6758,7 +6766,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6776,7 +6784,7 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
@@ -6785,7 +6793,7 @@
         <v>43</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>43</v>
@@ -6794,9 +6802,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6804,13 +6812,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>43</v>
@@ -6819,19 +6827,19 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6844,7 +6852,7 @@
         <v>43</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>43</v>
@@ -6880,7 +6888,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -6898,7 +6906,7 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>43</v>
@@ -6907,7 +6915,7 @@
         <v>43</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>43</v>
@@ -6918,7 +6926,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6941,18 +6949,20 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6964,7 +6974,7 @@
         <v>43</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>43</v>
@@ -7000,7 +7010,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7018,7 +7028,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -7027,7 +7037,7 @@
         <v>43</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>43</v>
@@ -7036,9 +7046,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7046,13 +7056,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>43</v>
@@ -7061,15 +7071,17 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -7082,7 +7094,7 @@
         <v>43</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>43</v>
@@ -7118,7 +7130,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7136,7 +7148,7 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -7145,7 +7157,7 @@
         <v>43</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>43</v>
@@ -7156,7 +7168,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7179,17 +7191,15 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -7238,7 +7248,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7256,7 +7266,7 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
@@ -7265,7 +7275,7 @@
         <v>43</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>43</v>
@@ -7274,9 +7284,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7284,41 +7294,39 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>43</v>
@@ -7336,13 +7344,13 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7363,7 +7371,7 @@
         <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>53</v>
@@ -7375,19 +7383,19 @@
         <v>65</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>43</v>
@@ -7396,9 +7404,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7406,39 +7414,41 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>43</v>
@@ -7456,13 +7466,13 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7480,10 +7490,10 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>53</v>
@@ -7495,19 +7505,19 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>43</v>
@@ -7516,9 +7526,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7529,10 +7539,10 @@
         <v>44</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
@@ -7541,19 +7551,17 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7578,13 +7586,13 @@
         <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
@@ -7602,7 +7610,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7623,16 +7631,16 @@
         <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>43</v>
@@ -7640,7 +7648,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7663,19 +7671,19 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7724,7 +7732,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7745,16 +7753,16 @@
         <v>43</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>43</v>
@@ -7762,7 +7770,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7770,10 +7778,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>54</v>
@@ -7785,17 +7793,19 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7844,7 +7854,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -7865,16 +7875,16 @@
         <v>43</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>43</v>
@@ -7882,7 +7892,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7905,17 +7915,17 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7964,10 +7974,10 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>53</v>
@@ -7979,22 +7989,22 @@
         <v>65</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>323</v>
+        <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>43</v>
@@ -8002,7 +8012,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8010,10 +8020,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>54</v>
@@ -8025,19 +8035,17 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -8086,10 +8094,10 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>53</v>
@@ -8101,22 +8109,22 @@
         <v>65</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>43</v>
@@ -8124,7 +8132,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8144,22 +8152,22 @@
         <v>43</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8184,13 +8192,13 @@
         <v>43</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>336</v>
+        <v>43</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>43</v>
@@ -8208,7 +8216,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8232,10 +8240,10 @@
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>43</v>
@@ -8246,7 +8254,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8254,10 +8262,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>54</v>
@@ -8266,20 +8274,22 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8304,13 +8314,13 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
@@ -8328,7 +8338,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8343,19 +8353,19 @@
         <v>65</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>344</v>
+        <v>43</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>43</v>
@@ -8366,7 +8376,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8389,19 +8399,17 @@
         <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>299</v>
+        <v>136</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8450,13 +8458,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8465,30 +8473,30 @@
         <v>65</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>353</v>
+        <v>43</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8496,10 +8504,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>54</v>
@@ -8508,22 +8516,22 @@
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8560,20 +8568,22 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>45</v>
@@ -8591,16 +8601,16 @@
         <v>43</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>43</v>
@@ -8608,7 +8618,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8619,10 +8629,10 @@
         <v>44</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
@@ -8631,16 +8641,20 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8676,37 +8690,35 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
@@ -8726,18 +8738,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8749,17 +8761,15 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8808,19 +8818,19 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>43</v>
@@ -8846,11 +8856,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8863,26 +8873,24 @@
         <v>43</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>121</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8930,7 +8938,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -8948,7 +8956,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8968,40 +8976,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M62" s="2"/>
+      <c r="M62" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -9026,13 +9036,13 @@
         <v>43</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
@@ -9050,25 +9060,25 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
@@ -9088,7 +9098,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9111,19 +9121,17 @@
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -9148,13 +9156,13 @@
         <v>43</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -9172,7 +9180,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -9196,13 +9204,13 @@
         <v>43</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>43</v>
@@ -9210,7 +9218,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9218,7 +9226,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>53</v>
@@ -9236,14 +9244,16 @@
         <v>55</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -9292,10 +9302,10 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>53</v>
@@ -9316,25 +9326,23 @@
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>43</v>
       </c>
@@ -9346,28 +9354,26 @@
         <v>53</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -9416,13 +9422,13 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>43</v>
@@ -9440,23 +9446,25 @@
         <v>43</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>43</v>
       </c>
@@ -9468,7 +9476,7 @@
         <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>43</v>
@@ -9477,16 +9485,20 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
       </c>
@@ -9534,25 +9546,25 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -9572,18 +9584,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -9595,17 +9607,15 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -9654,19 +9664,19 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
@@ -9692,11 +9702,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9709,26 +9719,24 @@
         <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>366</v>
+        <v>121</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9776,7 +9784,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -9794,7 +9802,7 @@
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9812,42 +9820,44 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M69" s="2"/>
+      <c r="M69" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9872,13 +9882,13 @@
         <v>43</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>43</v>
@@ -9896,25 +9906,25 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9932,9 +9942,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9942,31 +9952,33 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
@@ -9990,13 +10002,13 @@
         <v>43</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -10014,10 +10026,10 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>117</v>
+        <v>372</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>53</v>
@@ -10026,13 +10038,13 @@
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
@@ -10052,18 +10064,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -10075,17 +10087,15 @@
         <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -10122,31 +10132,31 @@
         <v>43</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
@@ -10170,45 +10180,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
@@ -10244,19 +10252,19 @@
         <v>43</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10268,13 +10276,13 @@
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
@@ -10283,7 +10291,7 @@
         <v>43</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>43</v>
@@ -10292,9 +10300,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10302,31 +10310,35 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
       </c>
@@ -10374,25 +10386,25 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -10401,7 +10413,7 @@
         <v>43</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>43</v>
@@ -10412,18 +10424,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -10435,17 +10447,15 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -10482,31 +10492,31 @@
         <v>43</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
@@ -10530,51 +10540,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>394</v>
+        <v>43</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>43</v>
@@ -10604,37 +10612,37 @@
         <v>43</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
@@ -10643,7 +10651,7 @@
         <v>43</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>43</v>
@@ -10652,9 +10660,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10662,13 +10670,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>43</v>
@@ -10677,24 +10685,26 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>43</v>
@@ -10736,7 +10746,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -10754,7 +10764,7 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -10763,7 +10773,7 @@
         <v>43</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>43</v>
@@ -10772,9 +10782,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10782,13 +10792,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -10797,24 +10807,24 @@
         <v>54</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>397</v>
+        <v>43</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>43</v>
@@ -10856,7 +10866,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -10874,7 +10884,7 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -10883,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>43</v>
@@ -10892,9 +10902,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10902,13 +10912,13 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>43</v>
@@ -10917,24 +10927,24 @@
         <v>54</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>43</v>
@@ -10976,7 +10986,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -10994,7 +11004,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -11003,7 +11013,7 @@
         <v>43</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>43</v>
@@ -11014,7 +11024,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11037,19 +11047,17 @@
         <v>54</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -11098,7 +11106,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
@@ -11116,7 +11124,7 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>43</v>
@@ -11125,7 +11133,7 @@
         <v>43</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>43</v>
@@ -11136,7 +11144,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11159,19 +11167,19 @@
         <v>54</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -11220,7 +11228,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>44</v>
@@ -11238,7 +11246,7 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>43</v>
@@ -11247,7 +11255,7 @@
         <v>43</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>43</v>
@@ -11256,9 +11264,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11266,13 +11274,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>43</v>
@@ -11284,16 +11292,16 @@
         <v>55</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>378</v>
+        <v>246</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>379</v>
+        <v>247</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -11342,10 +11350,10 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>375</v>
+        <v>248</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>53</v>
@@ -11360,27 +11368,27 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11388,13 +11396,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>43</v>
@@ -11406,14 +11414,16 @@
         <v>55</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -11462,10 +11472,10 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>53</v>
@@ -11486,13 +11496,13 @@
         <v>43</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>43</v>
@@ -11500,7 +11510,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11511,7 +11521,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>43</v>
@@ -11523,17 +11533,17 @@
         <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11582,7 +11592,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
@@ -11606,13 +11616,13 @@
         <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>43</v>
@@ -11620,7 +11630,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11643,17 +11653,17 @@
         <v>54</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -11702,7 +11712,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>44</v>
@@ -11726,10 +11736,10 @@
         <v>43</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>43</v>
@@ -11740,11 +11750,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>412</v>
+        <v>43</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11760,22 +11770,20 @@
         <v>43</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>43</v>
@@ -11824,13 +11832,13 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>43</v>
@@ -11848,7 +11856,7 @@
         <v>43</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>43</v>
@@ -11862,18 +11870,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>43</v>
@@ -11885,16 +11893,20 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>115</v>
+        <v>416</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
       </c>
@@ -11942,25 +11954,25 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>43</v>
@@ -11980,18 +11992,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>43</v>
@@ -12003,17 +12015,15 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -12062,19 +12072,19 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>43</v>
@@ -12100,11 +12110,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12117,26 +12127,24 @@
         <v>43</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>366</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>43</v>
       </c>
@@ -12184,7 +12192,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>44</v>
@@ -12202,7 +12210,7 @@
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>43</v>
@@ -12222,42 +12230,42 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>423</v>
+        <v>123</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -12282,13 +12290,13 @@
         <v>43</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>425</v>
+        <v>43</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
@@ -12306,25 +12314,25 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -12344,7 +12352,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12352,7 +12360,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>53</v>
@@ -12367,19 +12375,19 @@
         <v>54</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>428</v>
+        <v>181</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -12404,13 +12412,13 @@
         <v>43</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
@@ -12428,10 +12436,10 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>53</v>
@@ -12452,13 +12460,13 @@
         <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>43</v>
@@ -12466,7 +12474,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12474,10 +12482,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>43</v>
@@ -12486,20 +12494,22 @@
         <v>43</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -12548,13 +12558,13 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>43</v>
@@ -12572,13 +12582,13 @@
         <v>43</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>43</v>
@@ -12597,7 +12607,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>43</v>
@@ -12609,16 +12619,18 @@
         <v>43</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>115</v>
+        <v>437</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
       </c>
@@ -12666,25 +12678,25 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>117</v>
+        <v>436</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>43</v>
@@ -12704,18 +12716,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>43</v>
@@ -12727,17 +12739,15 @@
         <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -12786,19 +12796,19 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>43</v>
@@ -12824,11 +12834,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12841,26 +12851,24 @@
         <v>43</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>366</v>
+        <v>121</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N94" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>43</v>
       </c>
@@ -12908,7 +12916,7 @@
         <v>43</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>44</v>
@@ -12926,7 +12934,7 @@
         <v>43</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>43</v>
@@ -12946,40 +12954,42 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N95" t="s" s="2">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>43</v>
@@ -13004,13 +13014,13 @@
         <v>43</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>444</v>
+        <v>43</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>445</v>
+        <v>43</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>43</v>
@@ -13028,25 +13038,25 @@
         <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>43</v>
@@ -13066,7 +13076,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13074,7 +13084,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>53</v>
@@ -13089,17 +13099,17 @@
         <v>54</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -13124,13 +13134,13 @@
         <v>43</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>43</v>
+        <v>446</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>43</v>
+        <v>447</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>43</v>
+        <v>448</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>43</v>
@@ -13148,10 +13158,10 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>53</v>
@@ -13186,7 +13196,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13197,7 +13207,7 @@
         <v>44</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>43</v>
@@ -13206,22 +13216,20 @@
         <v>43</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -13270,7 +13278,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>44</v>
@@ -13308,7 +13316,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13331,17 +13339,19 @@
         <v>43</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -13390,13 +13400,13 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>43</v>
@@ -13408,26 +13418,146 @@
         <v>43</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AP98" t="s" s="2">
+      <c r="AL99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP98">
+  <autoFilter ref="A1:AP99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13437,7 +13567,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="444">
   <si>
     <t>Path</t>
   </si>
@@ -375,479 +375,418 @@
     <t>ALR Enrollment Flag Desc</t>
   </si>
   <si>
-    <t>Coverage.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension</t>
+    <t>ext-partDMonths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-partDMonths}
+</t>
+  </si>
+  <si>
+    <t>ALR Part D Months</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for the coverage</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this coverage.</t>
+  </si>
+  <si>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.</t>
+  </si>
+  <si>
+    <t>Allows coverages to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>value:type.coding.system}
+value:type.coding.code}</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>IN1-2</t>
+  </si>
+  <si>
+    <t>C.32, C.33, C.39</t>
+  </si>
+  <si>
+    <t>MemberIdentifier</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.extension</t>
+  </si>
+  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>EnrollFlagN</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension.value[x]</t>
+    <t>Coverage.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Coverage.extension.url</t>
-  </si>
-  <si>
-    <t>http://alr.cms.gov/ig/StructureDefinition/ext-enrollmentFlag</t>
-  </si>
-  <si>
-    <t>Coverage.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>ext-partDMonths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-partDMonths}
-</t>
-  </si>
-  <si>
-    <t>ALR Part D Months</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for the coverage</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this coverage.</t>
-  </si>
-  <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.</t>
-  </si>
-  <si>
-    <t>Allows coverages to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>value:type.coding.system}
-value:type.coding.code}</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>IN1-2</t>
-  </si>
-  <si>
-    <t>C.32, C.33, C.39</t>
-  </si>
-  <si>
-    <t>MemberIdentifier</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.id</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.extension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Coverage.identifier.period</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -1593,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP99"/>
+  <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2968,11 +2907,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>43</v>
       </c>
@@ -2984,7 +2925,7 @@
         <v>53</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>43</v>
@@ -2993,10 +2934,10 @@
         <v>43</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>116</v>
@@ -3050,25 +2991,25 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>43</v>
@@ -3088,11 +3029,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3105,7 +3046,7 @@
         <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>43</v>
@@ -3114,15 +3055,17 @@
         <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>43</v>
       </c>
@@ -3158,19 +3101,19 @@
         <v>43</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>44</v>
@@ -3188,7 +3131,7 @@
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3208,11 +3151,9 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>43</v>
       </c>
@@ -3221,28 +3162,32 @@
         <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>43</v>
       </c>
@@ -3278,19 +3223,17 @@
         <v>43</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3302,35 +3245,37 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>43</v>
       </c>
@@ -3342,25 +3287,29 @@
         <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>43</v>
       </c>
@@ -3408,37 +3357,37 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>43</v>
@@ -3446,7 +3395,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3457,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>43</v>
@@ -3469,13 +3418,13 @@
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3514,37 +3463,37 @@
         <v>43</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>43</v>
@@ -3564,18 +3513,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>43</v>
@@ -3587,16 +3536,16 @@
         <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3604,7 +3553,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>43</v>
@@ -3634,37 +3583,37 @@
         <v>43</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
@@ -3684,7 +3633,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3701,22 +3650,26 @@
         <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
       </c>
@@ -3740,13 +3693,13 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
@@ -3764,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3782,17 +3735,17 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AO18" t="s" s="2">
         <v>43</v>
       </c>
@@ -3800,43 +3753,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
       </c>
@@ -3860,13 +3815,13 @@
         <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>43</v>
@@ -3884,25 +3839,25 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>43</v>
@@ -3911,7 +3866,7 @@
         <v>43</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>43</v>
@@ -3922,7 +3877,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3948,10 +3903,10 @@
         <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4002,7 +3957,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4020,7 +3975,7 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -4040,18 +3995,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
@@ -4066,12 +4021,14 @@
         <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -4111,7 +4068,7 @@
         <v>101</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>43</v>
@@ -4120,7 +4077,7 @@
         <v>102</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4138,7 +4095,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -4156,9 +4113,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4172,33 +4129,35 @@
         <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>43</v>
@@ -4240,25 +4199,25 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>43</v>
@@ -4267,7 +4226,7 @@
         <v>43</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>43</v>
@@ -4278,7 +4237,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4301,13 +4260,13 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4358,7 +4317,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4370,13 +4329,13 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>43</v>
@@ -4396,18 +4355,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -4419,16 +4378,16 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4436,7 +4395,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>43</v>
@@ -4466,37 +4425,37 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>43</v>
@@ -4514,9 +4473,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4524,37 +4483,41 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>43</v>
@@ -4596,7 +4559,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4614,7 +4577,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4623,7 +4586,7 @@
         <v>43</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>43</v>
@@ -4632,13 +4595,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4650,24 +4611,26 @@
         <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4716,25 +4679,25 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
@@ -4743,7 +4706,7 @@
         <v>43</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>43</v>
@@ -4752,51 +4715,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="I27" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>43</v>
@@ -4838,25 +4799,25 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>43</v>
@@ -4865,7 +4826,7 @@
         <v>43</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>43</v>
@@ -4876,7 +4837,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4887,10 +4848,10 @@
         <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
@@ -4899,19 +4860,17 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4948,23 +4907,25 @@
         <v>43</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
@@ -4973,34 +4934,32 @@
         <v>65</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>43</v>
       </c>
@@ -5012,7 +4971,7 @@
         <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>43</v>
@@ -5021,19 +4980,19 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -5082,13 +5041,13 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
@@ -5097,22 +5056,22 @@
         <v>65</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>43</v>
@@ -5120,7 +5079,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5140,19 +5099,23 @@
         <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
@@ -5200,7 +5163,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5212,13 +5175,13 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
@@ -5227,7 +5190,7 @@
         <v>43</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>43</v>
@@ -5236,43 +5199,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5284,7 +5249,7 @@
         <v>43</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>43</v>
@@ -5308,37 +5273,37 @@
         <v>43</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
@@ -5347,7 +5312,7 @@
         <v>43</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>43</v>
@@ -5356,9 +5321,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5366,35 +5331,33 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
@@ -5406,7 +5369,7 @@
         <v>43</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>43</v>
@@ -5418,13 +5381,13 @@
         <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>43</v>
@@ -5442,7 +5405,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5460,7 +5423,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5469,7 +5432,7 @@
         <v>43</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>43</v>
@@ -5478,9 +5441,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5488,13 +5451,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
@@ -5503,20 +5466,16 @@
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
@@ -5540,13 +5499,13 @@
         <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
@@ -5564,7 +5523,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5582,7 +5541,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5591,7 +5550,7 @@
         <v>43</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>43</v>
@@ -5602,7 +5561,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5622,18 +5581,20 @@
         <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5682,7 +5643,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5694,13 +5655,13 @@
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
@@ -5709,7 +5670,7 @@
         <v>43</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>43</v>
@@ -5718,49 +5679,51 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>43</v>
@@ -5778,52 +5741,52 @@
         <v>43</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5838,9 +5801,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5848,13 +5811,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>43</v>
@@ -5863,19 +5826,17 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5900,13 +5861,13 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5924,13 +5885,13 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
@@ -5942,16 +5903,16 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>43</v>
@@ -5960,9 +5921,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5973,28 +5934,32 @@
         <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
       </c>
@@ -6042,7 +6007,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6054,67 +6019,69 @@
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
       </c>
@@ -6150,49 +6117,49 @@
         <v>43</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>43</v>
@@ -6200,7 +6167,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6223,26 +6190,24 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>43</v>
@@ -6284,7 +6249,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6302,27 +6267,27 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6330,13 +6295,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>43</v>
@@ -6345,18 +6310,18 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
@@ -6404,10 +6369,10 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>53</v>
@@ -6419,22 +6384,22 @@
         <v>65</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>43</v>
@@ -6442,7 +6407,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6450,10 +6415,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>54</v>
@@ -6465,24 +6430,26 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>43</v>
@@ -6524,7 +6491,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6542,16 +6509,16 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>43</v>
@@ -6560,9 +6527,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6573,29 +6540,31 @@
         <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>43</v>
@@ -6620,13 +6589,13 @@
         <v>43</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
@@ -6644,7 +6613,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6662,16 +6631,16 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>43</v>
@@ -6680,9 +6649,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6690,13 +6659,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>43</v>
@@ -6705,19 +6674,17 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
@@ -6766,7 +6733,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6781,19 +6748,19 @@
         <v>65</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>43</v>
@@ -6802,9 +6769,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6812,13 +6779,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>43</v>
@@ -6827,19 +6794,19 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6888,13 +6855,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6906,27 +6873,27 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>43</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6934,10 +6901,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>54</v>
@@ -6946,22 +6913,22 @@
         <v>43</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>67</v>
+        <v>340</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6974,7 +6941,7 @@
         <v>43</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>43</v>
@@ -6998,25 +6965,23 @@
         <v>43</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
@@ -7028,7 +6993,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -7037,7 +7002,7 @@
         <v>43</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>43</v>
@@ -7046,9 +7011,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7056,32 +7021,30 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -7094,7 +7057,7 @@
         <v>43</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>43</v>
@@ -7130,7 +7093,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7142,13 +7105,13 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -7157,7 +7120,7 @@
         <v>43</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>267</v>
+        <v>43</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>43</v>
@@ -7168,18 +7131,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>43</v>
@@ -7188,18 +7151,20 @@
         <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -7248,25 +7213,25 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
@@ -7275,7 +7240,7 @@
         <v>43</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>273</v>
+        <v>43</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>43</v>
@@ -7286,41 +7251,43 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
@@ -7368,25 +7335,25 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>279</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>43</v>
@@ -7395,7 +7362,7 @@
         <v>43</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>43</v>
@@ -7404,9 +7371,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7420,35 +7387,33 @@
         <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>43</v>
@@ -7466,13 +7431,13 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7490,7 +7455,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>53</v>
@@ -7505,13 +7470,13 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>43</v>
@@ -7528,7 +7493,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7536,7 +7501,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>53</v>
@@ -7551,17 +7516,19 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7586,13 +7553,13 @@
         <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
@@ -7610,10 +7577,10 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>53</v>
@@ -7631,24 +7598,24 @@
         <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7659,10 +7626,10 @@
         <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>43</v>
@@ -7671,19 +7638,17 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7732,7 +7697,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7753,16 +7718,16 @@
         <v>43</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>43</v>
@@ -7770,9 +7735,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7781,7 +7748,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>54</v>
@@ -7790,22 +7757,22 @@
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7854,13 +7821,13 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7875,24 +7842,24 @@
         <v>43</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7900,33 +7867,31 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>43</v>
       </c>
@@ -7974,7 +7939,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -7986,67 +7951,67 @@
         <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
       </c>
@@ -8094,80 +8059,80 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>321</v>
+        <v>147</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>326</v>
+        <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8216,34 +8181,34 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>43</v>
@@ -8254,7 +8219,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8262,10 +8227,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>54</v>
@@ -8274,22 +8239,20 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8314,13 +8277,13 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
@@ -8338,10 +8301,10 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>53</v>
@@ -8362,7 +8325,7 @@
         <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>43</v>
@@ -8374,9 +8337,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8384,33 +8347,31 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>343</v>
+        <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
       </c>
@@ -8458,7 +8419,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>342</v>
+        <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8470,22 +8431,22 @@
         <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>43</v>
@@ -8494,45 +8455,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>352</v>
+        <v>145</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8568,22 +8527,22 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>350</v>
+        <v>147</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>45</v>
@@ -8592,33 +8551,33 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>356</v>
+        <v>43</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8626,10 +8585,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>54</v>
@@ -8638,22 +8597,22 @@
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>360</v>
+        <v>172</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>362</v>
+        <v>174</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8690,17 +8649,19 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8718,7 +8679,7 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
@@ -8727,7 +8688,7 @@
         <v>43</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>43</v>
@@ -8738,7 +8699,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8764,10 +8725,10 @@
         <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8818,7 +8779,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -8836,7 +8797,7 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
@@ -8856,11 +8817,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8882,13 +8843,13 @@
         <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8926,19 +8887,19 @@
         <v>43</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -8956,7 +8917,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8974,51 +8935,51 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>369</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>43</v>
@@ -9060,25 +9021,25 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
@@ -9087,7 +9048,7 @@
         <v>43</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>43</v>
@@ -9098,7 +9059,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9106,7 +9067,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>53</v>
@@ -9121,18 +9082,18 @@
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>373</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
       </c>
@@ -9156,13 +9117,13 @@
         <v>43</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -9180,10 +9141,10 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>195</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>53</v>
@@ -9198,7 +9159,7 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
@@ -9207,7 +9168,7 @@
         <v>43</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>43</v>
@@ -9216,9 +9177,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9232,7 +9193,7 @@
         <v>53</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -9241,26 +9202,24 @@
         <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>379</v>
+        <v>199</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>43</v>
@@ -9302,10 +9261,10 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>378</v>
+        <v>203</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>53</v>
@@ -9320,19 +9279,19 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>384</v>
+        <v>205</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>43</v>
@@ -9340,7 +9299,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9366,14 +9325,14 @@
         <v>55</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>388</v>
+        <v>208</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>389</v>
+        <v>209</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -9422,7 +9381,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>210</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
@@ -9440,31 +9399,29 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>43</v>
       </c>
@@ -9476,28 +9433,28 @@
         <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9546,13 +9503,13 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>359</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
@@ -9564,7 +9521,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -9573,7 +9530,7 @@
         <v>43</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>43</v>
@@ -9584,7 +9541,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9604,19 +9561,23 @@
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
       </c>
@@ -9664,7 +9625,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9676,13 +9637,13 @@
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -9691,7 +9652,7 @@
         <v>43</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>43</v>
@@ -9700,43 +9661,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>121</v>
+        <v>359</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>122</v>
+        <v>360</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9784,37 +9747,37 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>43</v>
@@ -9822,42 +9785,40 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9906,45 +9867,45 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9952,13 +9913,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>43</v>
@@ -9967,17 +9928,17 @@
         <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -10002,13 +9963,13 @@
         <v>43</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -10026,10 +9987,10 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>53</v>
@@ -10053,7 +10014,7 @@
         <v>43</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>43</v>
@@ -10064,7 +10025,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10075,7 +10036,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -10084,19 +10045,21 @@
         <v>43</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
       </c>
@@ -10144,7 +10107,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
@@ -10156,19 +10119,19 @@
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>43</v>
@@ -10182,18 +10145,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>120</v>
+        <v>395</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>43</v>
@@ -10205,18 +10168,20 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>122</v>
+        <v>397</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
@@ -10252,19 +10217,19 @@
         <v>43</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10276,13 +10241,13 @@
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
@@ -10300,9 +10265,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10310,35 +10275,31 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>43</v>
       </c>
@@ -10386,25 +10347,25 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -10413,7 +10374,7 @@
         <v>43</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>43</v>
@@ -10424,18 +10385,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -10447,15 +10408,17 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -10504,25 +10467,25 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
@@ -10542,11 +10505,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>120</v>
+        <v>348</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10559,24 +10522,26 @@
         <v>43</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -10612,19 +10577,19 @@
         <v>43</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10642,7 +10607,7 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
@@ -10660,9 +10625,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10670,13 +10635,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>43</v>
@@ -10685,26 +10650,26 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>204</v>
+        <v>404</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>206</v>
+        <v>406</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>397</v>
+        <v>43</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>43</v>
@@ -10722,13 +10687,13 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>43</v>
+        <v>408</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>43</v>
+        <v>409</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -10746,7 +10711,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>209</v>
+        <v>403</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -10764,7 +10729,7 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -10773,7 +10738,7 @@
         <v>43</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>43</v>
@@ -10784,7 +10749,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10792,7 +10757,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>53</v>
@@ -10807,18 +10772,20 @@
         <v>54</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10866,10 +10833,10 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>53</v>
@@ -10884,27 +10851,27 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>218</v>
+        <v>364</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10912,39 +10879,39 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>221</v>
+        <v>418</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>400</v>
+        <v>43</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>43</v>
@@ -10986,13 +10953,13 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>224</v>
+        <v>416</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>43</v>
@@ -11004,7 +10971,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -11013,7 +10980,7 @@
         <v>43</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>43</v>
@@ -11024,7 +10991,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11044,21 +11011,19 @@
         <v>43</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>43</v>
       </c>
@@ -11106,7 +11071,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
@@ -11118,13 +11083,13 @@
         <v>43</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>43</v>
@@ -11133,7 +11098,7 @@
         <v>43</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>43</v>
@@ -11144,18 +11109,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>43</v>
@@ -11164,23 +11129,21 @@
         <v>43</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>43</v>
       </c>
@@ -11228,25 +11191,25 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>43</v>
@@ -11255,7 +11218,7 @@
         <v>43</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>43</v>
@@ -11266,42 +11229,42 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -11350,25 +11313,25 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
@@ -11377,7 +11340,7 @@
         <v>43</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>43</v>
@@ -11386,9 +11349,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11402,7 +11365,7 @@
         <v>53</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>43</v>
@@ -11411,19 +11374,17 @@
         <v>54</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -11448,13 +11409,13 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -11472,7 +11433,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>53</v>
@@ -11496,13 +11457,13 @@
         <v>43</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>43</v>
@@ -11510,7 +11471,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11533,17 +11494,17 @@
         <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11592,7 +11553,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
@@ -11616,13 +11577,13 @@
         <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>43</v>
@@ -11630,7 +11591,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11650,20 +11611,22 @@
         <v>43</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -11712,7 +11675,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>44</v>
@@ -11739,7 +11702,7 @@
         <v>43</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>43</v>
@@ -11750,7 +11713,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11770,20 +11733,20 @@
         <v>43</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>55</v>
+        <v>439</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>43</v>
@@ -11832,13 +11795,13 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>43</v>
@@ -11850,1714 +11813,26 @@
         <v>43</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>413</v>
+        <v>288</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AP99" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP99">
+  <autoFilter ref="A1:AP85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13567,7 +11842,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
